--- a/CourseProposal/json_output/summary_dataframe.xlsx
+++ b/CourseProposal/json_output/summary_dataframe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>LU#</t>
   </si>
@@ -55,84 +55,69 @@
     <t>LU5</t>
   </si>
   <si>
-    <t>LU6</t>
-  </si>
-  <si>
-    <t>Git and GitHub Fundamentals</t>
-  </si>
-  <si>
-    <t>GitHub Repository Management</t>
-  </si>
-  <si>
-    <t>Collaborative Workflows on GitHub</t>
-  </si>
-  <si>
-    <t>Modern Development Practices</t>
-  </si>
-  <si>
-    <t>GitHub Project Management</t>
-  </si>
-  <si>
-    <t>GitHub Security and Administration</t>
-  </si>
-  <si>
-    <t>LO1: Analyze Github components and coordinate release scheduling with collaborators to align processes. (A1, A2)</t>
-  </si>
-  <si>
-    <t>LO2: Select appropriate Git scripts for integrating and deploying software products. (K1, A3)</t>
-  </si>
-  <si>
-    <t>LO3: Configure software products and deploy releases using Git configuration tests. (K2, K3, A4, A5)</t>
-  </si>
-  <si>
-    <t>LO4: Diagnose issues identified during Github configuration testing by interpreting configuration test results. (K4, A6)</t>
-  </si>
-  <si>
-    <t>LO5: Identify potential improvements to the software configuration, deployment processes, and code elements. (K5, A7)</t>
-  </si>
-  <si>
-    <t>LO6: Implement modifications to software products and processes for improved functionality. (A8)</t>
-  </si>
-  <si>
-    <t>- T1: Introduction to Git and GitHub
-- T1: Introduction to Git and GitHub</t>
-  </si>
-  <si>
-    <t>- T2: Working with GitHub Repository
-- T2: Working with GitHub Repository</t>
-  </si>
-  <si>
-    <t>- T3: Collaboration Features
-- T3: Collaboration Features
-- T3: Collaboration Features
-- T3: Collaboration Features</t>
-  </si>
-  <si>
-    <t>- T4: Modern Development
-- T4: Modern Development</t>
-  </si>
-  <si>
-    <t>- T5: GitHub Project
-- T5: GitHub Project</t>
-  </si>
-  <si>
-    <t>- T6: Privacy, Security and Administration</t>
-  </si>
-  <si>
-    <t>- Classroom (Classroom Facilitated Training: 20)
-- Didactic Questioning (Classroom Facilitated Training: 20)
-- Demonstration (Classroom Facilitated Training: 20)
-- Practical (Classroom Facilitated Training: 70)</t>
-  </si>
-  <si>
-    <t>- Classroom (Classroom Facilitated Training: 25)
-- Didactic Questioning (Classroom Facilitated Training: 25)
-- Demonstration (Classroom Facilitated Training: 25)
-- Practical (Classroom Facilitated Training: 70)</t>
-  </si>
-  <si>
-    <t>- Practical Exam (1:20, 5)
-- Practical Exam (1:20, 5)</t>
+    <t>Container Management</t>
+  </si>
+  <si>
+    <t>Deployment Strategies</t>
+  </si>
+  <si>
+    <t>Application Monitoring</t>
+  </si>
+  <si>
+    <t>Security and Configuration</t>
+  </si>
+  <si>
+    <t>Networking Fundamentals</t>
+  </si>
+  <si>
+    <t>LO1: Establish high-level structures and frameworks for Kubernetes solutions using appropriate processes and tools. (K1, K2, A1, A2)</t>
+  </si>
+  <si>
+    <t>LO2: Align technical, functional, and service requirements within Kubernetes-based solution architectures. (K3, A3)</t>
+  </si>
+  <si>
+    <t>LO3: Coordinate multiple Kubernetes solution components to ensure compatibility and meet design framework goals. (K4, K6, A4)</t>
+  </si>
+  <si>
+    <t>LO4: Articulate the value of Kubernetes solutions by addressing coding standards, scalability, and reusability. (K5, A5)</t>
+  </si>
+  <si>
+    <t>LO5: Establish monitoring and testing processes to validate Kubernetes architectures against business requirements. (K7, A6)</t>
+  </si>
+  <si>
+    <t>- T1: Application Design and Build
+- T1: Application Design and Build
+- T1: Application Design and Build
+- T1: Application Design and Build</t>
+  </si>
+  <si>
+    <t>- T2: Application Deployment
+- T2: Application Deployment</t>
+  </si>
+  <si>
+    <t>- T3: Application Observability and Maintenance
+- T3: Application Observability and Maintenance
+- T3: Application Observability and Maintenance</t>
+  </si>
+  <si>
+    <t>- T4: Application Environment, Configuration and Security
+- T4: Application Environment, Configuration and Security</t>
+  </si>
+  <si>
+    <t>- T5: Services and Networking
+- T5: Services and Networking</t>
+  </si>
+  <si>
+    <t>- Lecture (Classroom Facilitated Training: 90)
+- Didactic Questioning (Classroom Facilitated Training: 90)
+- Demonstration (Classroom Facilitated Training: 90)
+- Practice (Classroom Facilitated Training: 90)</t>
+  </si>
+  <si>
+    <t>- Written Exam (1:20, 5)
+- Written Exam (1:20, 5)
+- Practical Exam (1:20, 10)
+- Practical Exam (1:20, 10)</t>
   </si>
   <si>
     <t>- Written Exam (1:20, 10)
@@ -141,11 +126,7 @@
   <si>
     <t>- Written Exam (1:20, 10)
 - Written Exam (1:20, 10)
-- Practical Exam (1:20, 10)
 - Practical Exam (1:20, 10)</t>
-  </si>
-  <si>
-    <t>- Practical Exam (1:20, 10)</t>
   </si>
 </sst>
 </file>
@@ -503,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,25 +521,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -566,22 +547,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -592,25 +573,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
       <c r="F4">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -618,22 +599,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -644,51 +625,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>360</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6">
-        <v>145</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
       </c>
       <c r="H6">
         <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7">
-        <v>145</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/CourseProposal/json_output/summary_dataframe.xlsx
+++ b/CourseProposal/json_output/summary_dataframe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>LU#</t>
   </si>
@@ -52,81 +52,76 @@
     <t>LU4</t>
   </si>
   <si>
-    <t>LU5</t>
-  </si>
-  <si>
-    <t>Container Management</t>
-  </si>
-  <si>
-    <t>Deployment Strategies</t>
-  </si>
-  <si>
-    <t>Application Monitoring</t>
-  </si>
-  <si>
-    <t>Security and Configuration</t>
-  </si>
-  <si>
-    <t>Networking Fundamentals</t>
-  </si>
-  <si>
-    <t>LO1: Establish high-level structures and frameworks for Kubernetes solutions using appropriate processes and tools. (K1, K2, A1, A2)</t>
-  </si>
-  <si>
-    <t>LO2: Align technical, functional, and service requirements within Kubernetes-based solution architectures. (K3, A3)</t>
-  </si>
-  <si>
-    <t>LO3: Coordinate multiple Kubernetes solution components to ensure compatibility and meet design framework goals. (K4, K6, A4)</t>
-  </si>
-  <si>
-    <t>LO4: Articulate the value of Kubernetes solutions by addressing coding standards, scalability, and reusability. (K5, A5)</t>
-  </si>
-  <si>
-    <t>LO5: Establish monitoring and testing processes to validate Kubernetes architectures against business requirements. (K7, A6)</t>
-  </si>
-  <si>
-    <t>- T1: Application Design and Build
-- T1: Application Design and Build
-- T1: Application Design and Build
-- T1: Application Design and Build</t>
-  </si>
-  <si>
-    <t>- T2: Application Deployment
-- T2: Application Deployment</t>
-  </si>
-  <si>
-    <t>- T3: Application Observability and Maintenance
-- T3: Application Observability and Maintenance
-- T3: Application Observability and Maintenance</t>
-  </si>
-  <si>
-    <t>- T4: Application Environment, Configuration and Security
-- T4: Application Environment, Configuration and Security</t>
-  </si>
-  <si>
-    <t>- T5: Services and Networking
-- T5: Services and Networking</t>
-  </si>
-  <si>
-    <t>- Lecture (Classroom Facilitated Training: 90)
-- Didactic Questioning (Classroom Facilitated Training: 90)
-- Demonstration (Classroom Facilitated Training: 90)
-- Practice (Classroom Facilitated Training: 90)</t>
-  </si>
-  <si>
-    <t>- Written Exam (1:20, 5)
-- Written Exam (1:20, 5)
-- Practical Exam (1:20, 10)
-- Practical Exam (1:20, 10)</t>
-  </si>
-  <si>
-    <t>- Written Exam (1:20, 10)
-- Practical Exam (1:20, 10)</t>
-  </si>
-  <si>
-    <t>- Written Exam (1:20, 10)
-- Written Exam (1:20, 10)
-- Practical Exam (1:20, 10)</t>
+    <t>Client Security Needs Assessment</t>
+  </si>
+  <si>
+    <t>Security Site Performance Analysis</t>
+  </si>
+  <si>
+    <t>Corrective Measures Implementation</t>
+  </si>
+  <si>
+    <t>Security Assessment Reporting</t>
+  </si>
+  <si>
+    <t>LO1: Apply basic risk identification techniques to detect tell-tale signs and symptoms of potential security threats. (K2, A1)</t>
+  </si>
+  <si>
+    <t>LO2: Follow organizational procedures to identify risks by recognizing surveillance, inappropriate behavior, or potential threats. (K3, K4, A2)</t>
+  </si>
+  <si>
+    <t>LO3: Analyze situations and relate them to prior experiences to identify suspicious activities, attire, or explosive devices. (K5, K6, A3)</t>
+  </si>
+  <si>
+    <t>LO4: Collaborate with security teams to assess risks using established methods of risk analysis. (K1, A4)</t>
+  </si>
+  <si>
+    <t>- T1: Assess Clients Security Status
+- T1: Assess Clients Security Status</t>
+  </si>
+  <si>
+    <t>- T2: Conduct Site Assessment
+- T2: Conduct Site Assessment
+- T2: Conduct Site Assessment</t>
+  </si>
+  <si>
+    <t>- T3: Address Security Deficiencies
+- T3: Address Security Deficiencies
+- T3: Address Security Deficiencies</t>
+  </si>
+  <si>
+    <t>- T4: Submit Findings and Recommendations
+- T4: Submit Findings and Recommendations</t>
+  </si>
+  <si>
+    <t>- Classroom (Classroom Facilitated Training: 85)
+- Peer Sharing (Classroom Facilitated Training: 85)
+- Group Discussion (Classroom Facilitated Training: 85)
+- Case Study (Classroom Facilitated Training: 85)</t>
+  </si>
+  <si>
+    <t>- Classroom (Classroom Facilitated Training: 80)
+- Peer Sharing (Classroom Facilitated Training: 80)
+- Group Discussion (Classroom Facilitated Training: 80)
+- Case Study (Classroom Facilitated Training: 80)</t>
+  </si>
+  <si>
+    <t>- Oral Questioning (1:20, 10)
+- Others: Case Study (1:20, 10)</t>
+  </si>
+  <si>
+    <t>- Oral Questioning (1:20, 10)
+- Oral Questioning (1:20, 10)
+- Others: Case Study (1:20, 10)</t>
+  </si>
+  <si>
+    <t>- Oral Questioning (1:20, 10)
+- Oral Questioning (1:20, 15)
+- Others: Case Study (1:20, 15)</t>
+  </si>
+  <si>
+    <t>- Oral Questioning (1:20, 15)
+- Others: Case Study (1:20, 15)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,25 +516,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -547,25 +542,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
       <c r="F3">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3">
         <v>30</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -573,25 +568,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4">
+        <v>320</v>
+      </c>
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="F4">
-        <v>360</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
       <c r="H4">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -599,51 +594,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
         <v>30</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6">
-        <v>360</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/CourseProposal/json_output/summary_dataframe.xlsx
+++ b/CourseProposal/json_output/summary_dataframe.xlsx
@@ -1,153 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
-  <si>
-    <t>LU#</t>
-  </si>
-  <si>
-    <t>Learning Unit Title</t>
-  </si>
-  <si>
-    <t>Learning Outcome(s)</t>
-  </si>
-  <si>
-    <t>Topic(s)</t>
-  </si>
-  <si>
-    <t>Instructional Methods (modes of training, duration in minutes)</t>
-  </si>
-  <si>
-    <t>Instructional Duration (in minutes)</t>
-  </si>
-  <si>
-    <t>Modes of Assessment (Assessor-to-candidate Ratio, duration in minutes)</t>
-  </si>
-  <si>
-    <t>Assessment Duration (in minutes)</t>
-  </si>
-  <si>
-    <t>LU1</t>
-  </si>
-  <si>
-    <t>LU2</t>
-  </si>
-  <si>
-    <t>LU3</t>
-  </si>
-  <si>
-    <t>LU4</t>
-  </si>
-  <si>
-    <t>Client Security Needs Assessment</t>
-  </si>
-  <si>
-    <t>Security Site Performance Analysis</t>
-  </si>
-  <si>
-    <t>Corrective Measures Implementation</t>
-  </si>
-  <si>
-    <t>Security Assessment Reporting</t>
-  </si>
-  <si>
-    <t>LO1: Apply basic risk identification techniques to detect tell-tale signs and symptoms of potential security threats. (K2, A1)</t>
-  </si>
-  <si>
-    <t>LO2: Follow organizational procedures to identify risks by recognizing surveillance, inappropriate behavior, or potential threats. (K3, K4, A2)</t>
-  </si>
-  <si>
-    <t>LO3: Analyze situations and relate them to prior experiences to identify suspicious activities, attire, or explosive devices. (K5, K6, A3)</t>
-  </si>
-  <si>
-    <t>LO4: Collaborate with security teams to assess risks using established methods of risk analysis. (K1, A4)</t>
-  </si>
-  <si>
-    <t>- T1: Assess Clients Security Status
-- T1: Assess Clients Security Status</t>
-  </si>
-  <si>
-    <t>- T2: Conduct Site Assessment
-- T2: Conduct Site Assessment
-- T2: Conduct Site Assessment</t>
-  </si>
-  <si>
-    <t>- T3: Address Security Deficiencies
-- T3: Address Security Deficiencies
-- T3: Address Security Deficiencies</t>
-  </si>
-  <si>
-    <t>- T4: Submit Findings and Recommendations
-- T4: Submit Findings and Recommendations</t>
-  </si>
-  <si>
-    <t>- Classroom (Classroom Facilitated Training: 85)
-- Peer Sharing (Classroom Facilitated Training: 85)
-- Group Discussion (Classroom Facilitated Training: 85)
-- Case Study (Classroom Facilitated Training: 85)</t>
-  </si>
-  <si>
-    <t>- Classroom (Classroom Facilitated Training: 80)
-- Peer Sharing (Classroom Facilitated Training: 80)
-- Group Discussion (Classroom Facilitated Training: 80)
-- Case Study (Classroom Facilitated Training: 80)</t>
-  </si>
-  <si>
-    <t>- Oral Questioning (1:20, 10)
-- Others: Case Study (1:20, 10)</t>
-  </si>
-  <si>
-    <t>- Oral Questioning (1:20, 10)
-- Oral Questioning (1:20, 10)
-- Others: Case Study (1:20, 10)</t>
-  </si>
-  <si>
-    <t>- Oral Questioning (1:20, 10)
-- Oral Questioning (1:20, 15)
-- Others: Case Study (1:20, 15)</t>
-  </si>
-  <si>
-    <t>- Oral Questioning (1:20, 15)
-- Others: Case Study (1:20, 15)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -162,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -478,144 +420,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LU#</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Learning Unit Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Learning Outcome(s)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Topic(s)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Instructional Methods (modes of training, duration in minutes)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Instructional Duration (in minutes)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Modes of Assessment (Assessor-to-candidate Ratio, duration in minutes)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Assessment Duration (in minutes)</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LU1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Storytelling with Generative AI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LO1: Use generative AI techniques to develop compelling script elements enriched with narrative structure and creative storytelling. (K9, K10, A8, A5)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>- T1: Fundamentals of storytelling
+- T2: Basic AI models for script generation
+- T3: Storytelling and storyboarding with generative AI
+- T4: Generating stories with generative AI</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>- Interactive Presentation (Classroom Facilitated Training: 55)
+- Brainstorming (Classroom Facilitated Training: 55)
+- Demonstration (Classroom Facilitated Training: 55)
+- Drill and Practice (Classroom Facilitated Training: 55)</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>220</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>- Written Exam (1:20, 10)
+- Written Exam (1:20, 10)
+- Practical Exam (1:20, 10)
+- Practical Exam (1:20, 10)</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LU2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Storyboarding with Generative AI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LO2: Identify effective prompt terms and narrative components to enhance AI-generated storyboards for visual storytelling. (K1, A7, K3, A6)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>- T1: Fundamentals of storyboarding
+- T2: Storyboard breakdown and text prompts for images
+- T3: AI tool limitation and solutions to generate better images
+- T4: Apply iterative approach to image generation</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>- Interactive Presentation (Classroom Facilitated Training: 55)
+- Brainstorming (Classroom Facilitated Training: 55)
+- Demonstration (Classroom Facilitated Training: 55)
+- Drill and Practice (Classroom Facilitated Training: 55)</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>220</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>- Written Exam (1:20, 10)
+- Practical Exam (1:20, 5)
+- Written Exam (1:20, 5)
+- Practical Exam (1:20, 5)</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LU3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Creating AI Generated Video</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LO3: Utilise generative AI tools to refine video scripts for clarity, tone, and narrative consistency. (K8, A2, K6, A4)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>- T1: AI Video tools for generating text, voiceover and video
+- T1: AI Video tools for generating text, voiceover and video
+- T2: Generating AI video for storyboard
+- T2: Generating AI video for storyboard</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>- Interactive Presentation (Classroom Facilitated Training: 50)
+- Brainstorming (Classroom Facilitated Training: 50)
+- Demonstration (Classroom Facilitated Training: 50)
+- Drill and Practice (Classroom Facilitated Training: 50)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>200</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>- Written Exam (1:20, 5)
+- Practical Exam (1:20, 5)
+- Written Exam (1:20, 5)
+- Practical Exam (1:20, 5)</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2">
-        <v>340</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3">
-        <v>340</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>320</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>320</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5">
-        <v>30</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LU4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Generative AI Ethics and Best Practices</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LO4: Analyse generative AI outputs for ethical issues, bias, and copyright risks, applying appropriate corrective actions. (K7, K5, A3, K4, A1, K2, A9)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>- T1: Gen AI and ethics awareness
+- T2: Best Practices to minimise plagiarism risk
+- T2: Best Practices to minimise plagiarism risk
+- T3: Analyse AI output for bias and taking corrective steps
+- T3: Analyse AI output for bias and taking corrective steps
+- T4: Copyright risk and avoid copyright infringement
+- T4: Copyright risk and avoid copyright infringement</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>- Interactive Presentation (Classroom Facilitated Training: 50)
+- Brainstorming (Classroom Facilitated Training: 50)
+- Demonstration (Classroom Facilitated Training: 50)
+- Drill and Practice (Classroom Facilitated Training: 50)</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>200</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>- Written Exam (1:20, 5)
+- Written Exam (1:20, 5)
+- Practical Exam (1:20, 5)
+- Written Exam (1:20, 5)
+- Practical Exam (1:20, 5)
+- Written Exam (1:20, 5)
+- Practical Exam (1:20, 5)</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>